--- a/files/29_11_2022/route_number_3.xlsx
+++ b/files/29_11_2022/route_number_3.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,553 +435,611 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>636460</v>
+        <v>676383</v>
       </c>
       <c r="B2">
-        <v>638416</v>
+        <v>688213</v>
       </c>
       <c r="C2">
-        <v>38.38034723</v>
+        <v>37.7555994</v>
       </c>
       <c r="D2">
-        <v>56.00772293</v>
+        <v>55.51114108</v>
       </c>
       <c r="E2">
-        <v>38.37969718</v>
+        <v>37.75318622</v>
       </c>
       <c r="F2">
-        <v>56.00710896</v>
+        <v>55.5052417</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>13.38</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.379999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>638416</v>
+        <v>688213</v>
       </c>
       <c r="B3">
-        <v>635534</v>
+        <v>629725</v>
       </c>
       <c r="C3">
-        <v>38.37969718</v>
+        <v>37.75318622</v>
       </c>
       <c r="D3">
-        <v>56.00710896</v>
+        <v>55.5052417</v>
       </c>
       <c r="E3">
-        <v>38.42045604</v>
+        <v>37.69528729</v>
       </c>
       <c r="F3">
-        <v>56.11739367</v>
+        <v>55.61685261</v>
       </c>
       <c r="G3">
-        <v>30.43</v>
+        <v>31.9</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>20.43</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>635534</v>
+        <v>629725</v>
       </c>
       <c r="B4">
-        <v>635202</v>
+        <v>606012</v>
       </c>
       <c r="C4">
-        <v>38.42045604</v>
+        <v>37.69528729</v>
       </c>
       <c r="D4">
-        <v>56.11739367</v>
+        <v>55.61685261</v>
       </c>
       <c r="E4">
-        <v>38.12642846</v>
+        <v>37.74544738</v>
       </c>
       <c r="F4">
-        <v>56.10192037</v>
+        <v>55.63667051</v>
       </c>
       <c r="G4">
-        <v>49.95</v>
+        <v>19.06</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>39.95</v>
+        <v>9.060000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>635202</v>
+        <v>606012</v>
       </c>
       <c r="B5">
-        <v>608095</v>
+        <v>634685</v>
       </c>
       <c r="C5">
-        <v>38.12642846</v>
+        <v>37.74544738</v>
       </c>
       <c r="D5">
-        <v>56.10192037</v>
+        <v>55.63667051</v>
       </c>
       <c r="E5">
-        <v>37.47194721</v>
+        <v>37.76784927</v>
       </c>
       <c r="F5">
-        <v>56.30528051</v>
+        <v>55.64138301</v>
       </c>
       <c r="G5">
-        <v>70.93000000000001</v>
+        <v>14.42</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>60.93000000000001</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>608095</v>
+        <v>634685</v>
       </c>
       <c r="B6">
-        <v>677559</v>
+        <v>605373</v>
       </c>
       <c r="C6">
-        <v>37.47194721</v>
+        <v>37.76784927</v>
       </c>
       <c r="D6">
-        <v>56.30528051</v>
+        <v>55.64138301</v>
       </c>
       <c r="E6">
-        <v>37.18434895</v>
+        <v>37.77504505</v>
       </c>
       <c r="F6">
-        <v>56.01121351</v>
+        <v>55.67159415</v>
       </c>
       <c r="G6">
-        <v>70.05</v>
+        <v>21.4</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>60.05</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>677559</v>
+        <v>605373</v>
       </c>
       <c r="B7">
-        <v>635520</v>
+        <v>664161</v>
       </c>
       <c r="C7">
-        <v>37.18434895</v>
+        <v>37.77504505</v>
       </c>
       <c r="D7">
-        <v>56.01121351</v>
+        <v>55.67159415</v>
       </c>
       <c r="E7">
-        <v>37.86670666</v>
+        <v>37.74378749</v>
       </c>
       <c r="F7">
-        <v>55.56408225</v>
+        <v>55.67007408</v>
       </c>
       <c r="G7">
-        <v>81.14</v>
+        <v>13.26</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>71.14</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>635520</v>
+        <v>664161</v>
       </c>
       <c r="B8">
-        <v>676981</v>
+        <v>406180</v>
       </c>
       <c r="C8">
-        <v>37.86670666</v>
+        <v>37.74378749</v>
       </c>
       <c r="D8">
-        <v>55.56408225</v>
+        <v>55.67007408</v>
       </c>
       <c r="E8">
-        <v>37.54758808</v>
+        <v>37.65678581</v>
       </c>
       <c r="F8">
-        <v>55.42204155</v>
+        <v>55.7079405</v>
       </c>
       <c r="G8">
-        <v>49.69</v>
+        <v>24.79</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8">
-        <v>39.69</v>
+        <v>14.79</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>676981</v>
+        <v>406180</v>
       </c>
       <c r="B9">
-        <v>649874</v>
+        <v>607792</v>
       </c>
       <c r="C9">
-        <v>37.54758808</v>
+        <v>37.65678581</v>
       </c>
       <c r="D9">
-        <v>55.42204155</v>
+        <v>55.7079405</v>
       </c>
       <c r="E9">
-        <v>37.07558919</v>
+        <v>37.6784782</v>
       </c>
       <c r="F9">
-        <v>55.2135222</v>
+        <v>55.68439114</v>
       </c>
       <c r="G9">
-        <v>55.81</v>
+        <v>18.21</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
-        <v>45.81</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>649874</v>
+        <v>607792</v>
       </c>
       <c r="B10">
-        <v>635734</v>
+        <v>616681</v>
       </c>
       <c r="C10">
-        <v>37.07558919</v>
+        <v>37.6784782</v>
       </c>
       <c r="D10">
-        <v>55.2135222</v>
+        <v>55.68439114</v>
       </c>
       <c r="E10">
-        <v>36.73561912</v>
+        <v>37.58077125</v>
       </c>
       <c r="F10">
-        <v>55.378521</v>
+        <v>55.73611813</v>
       </c>
       <c r="G10">
-        <v>68.59</v>
+        <v>24.43</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10">
-        <v>58.59</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>635734</v>
+        <v>616681</v>
       </c>
       <c r="B11">
-        <v>635204</v>
+        <v>406597</v>
       </c>
       <c r="C11">
-        <v>36.73561912</v>
+        <v>37.58077125</v>
       </c>
       <c r="D11">
-        <v>55.378521</v>
+        <v>55.73611813</v>
       </c>
       <c r="E11">
-        <v>36.73200591</v>
+        <v>37.51358889</v>
       </c>
       <c r="F11">
-        <v>55.38159113</v>
+        <v>55.68004215</v>
       </c>
       <c r="G11">
-        <v>10.62</v>
+        <v>21.46</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>0.6199999999999992</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>635204</v>
+        <v>406597</v>
       </c>
       <c r="B12">
-        <v>688355</v>
+        <v>699098</v>
       </c>
       <c r="C12">
-        <v>36.73200591</v>
+        <v>37.51358889</v>
       </c>
       <c r="D12">
-        <v>55.38159113</v>
+        <v>55.68004215</v>
       </c>
       <c r="E12">
-        <v>36.73497969</v>
+        <v>37.60454977</v>
       </c>
       <c r="F12">
-        <v>55.38667152</v>
+        <v>55.81308268</v>
       </c>
       <c r="G12">
-        <v>12.95</v>
+        <v>33.79</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12">
-        <v>2.949999999999999</v>
+        <v>23.79</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>688355</v>
+        <v>699098</v>
       </c>
       <c r="B13">
-        <v>698955</v>
+        <v>606068</v>
       </c>
       <c r="C13">
-        <v>36.73497969</v>
+        <v>37.60454977</v>
       </c>
       <c r="D13">
-        <v>55.38667152</v>
+        <v>55.81308268</v>
       </c>
       <c r="E13">
-        <v>36.73509794</v>
+        <v>37.63755917</v>
       </c>
       <c r="F13">
-        <v>55.38567297</v>
+        <v>55.87553206</v>
       </c>
       <c r="G13">
-        <v>11.33</v>
+        <v>24.6</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>1.33</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>698955</v>
+        <v>606068</v>
       </c>
       <c r="B14">
-        <v>698956</v>
+        <v>682277</v>
       </c>
       <c r="C14">
-        <v>36.73509794</v>
+        <v>37.63755917</v>
       </c>
       <c r="D14">
-        <v>55.38567297</v>
+        <v>55.87553206</v>
       </c>
       <c r="E14">
-        <v>36.74468937</v>
+        <v>37.83379799</v>
       </c>
       <c r="F14">
-        <v>55.38235319</v>
+        <v>55.94835244</v>
       </c>
       <c r="G14">
-        <v>13.93</v>
+        <v>31.07</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>3.93</v>
+        <v>21.07</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>698956</v>
+        <v>682277</v>
       </c>
       <c r="B15">
-        <v>622475</v>
+        <v>609965</v>
       </c>
       <c r="C15">
-        <v>36.74468937</v>
+        <v>37.83379799</v>
       </c>
       <c r="D15">
-        <v>55.38235319</v>
+        <v>55.94835244</v>
       </c>
       <c r="E15">
-        <v>36.74420761</v>
+        <v>37.87856674</v>
       </c>
       <c r="F15">
-        <v>55.38570362</v>
+        <v>55.74304337</v>
       </c>
       <c r="G15">
-        <v>13.29</v>
+        <v>39.28</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>3.289999999999999</v>
+        <v>29.28</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>622475</v>
+        <v>609965</v>
       </c>
       <c r="B16">
-        <v>698650</v>
+        <v>636402</v>
       </c>
       <c r="C16">
-        <v>36.74420761</v>
+        <v>37.87856674</v>
       </c>
       <c r="D16">
-        <v>55.38570362</v>
+        <v>55.74304337</v>
       </c>
       <c r="E16">
-        <v>36.76695987</v>
+        <v>37.97225614</v>
       </c>
       <c r="F16">
-        <v>55.39239134</v>
+        <v>55.74702009</v>
       </c>
       <c r="G16">
-        <v>13.31</v>
+        <v>23.22</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>3.31</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>698650</v>
+        <v>636402</v>
       </c>
       <c r="B17">
-        <v>634975</v>
+        <v>634858</v>
       </c>
       <c r="C17">
-        <v>36.76695987</v>
+        <v>37.97225614</v>
       </c>
       <c r="D17">
-        <v>55.39239134</v>
+        <v>55.74702009</v>
       </c>
       <c r="E17">
-        <v>36.71681413</v>
+        <v>38.069901</v>
       </c>
       <c r="F17">
-        <v>55.40882581</v>
+        <v>55.61867746</v>
       </c>
       <c r="G17">
-        <v>17.66</v>
+        <v>60.25</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>7.66</v>
+        <v>50.25</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>634975</v>
+        <v>634858</v>
       </c>
       <c r="B18">
-        <v>622465</v>
+        <v>680324</v>
       </c>
       <c r="C18">
-        <v>36.71681413</v>
+        <v>38.069901</v>
       </c>
       <c r="D18">
-        <v>55.40882581</v>
+        <v>55.61867746</v>
       </c>
       <c r="E18">
-        <v>36.71827572</v>
+        <v>37.12777706</v>
       </c>
       <c r="F18">
-        <v>55.41093039</v>
+        <v>55.63273321</v>
       </c>
       <c r="G18">
-        <v>10.89</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.8900000000000006</v>
+        <v>69.65000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>622465</v>
+        <v>680324</v>
       </c>
       <c r="B19">
-        <v>680602</v>
+        <v>627773</v>
       </c>
       <c r="C19">
-        <v>36.71827572</v>
+        <v>37.12777706</v>
       </c>
       <c r="D19">
-        <v>55.41093039</v>
+        <v>55.63273321</v>
       </c>
       <c r="E19">
-        <v>36.54371614</v>
+        <v>36.98848678</v>
       </c>
       <c r="F19">
-        <v>55.38077214</v>
+        <v>55.61489053</v>
       </c>
       <c r="G19">
-        <v>29.2</v>
+        <v>16.64</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>19.2</v>
+        <v>6.640000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>680602</v>
+        <v>627773</v>
       </c>
       <c r="B20">
-        <v>688293</v>
+        <v>648248</v>
       </c>
       <c r="C20">
-        <v>36.54371614</v>
+        <v>36.98848678</v>
       </c>
       <c r="D20">
-        <v>55.38077214</v>
+        <v>55.61489053</v>
       </c>
       <c r="E20">
-        <v>36.48593984</v>
+        <v>36.93819967</v>
       </c>
       <c r="F20">
-        <v>55.36611346</v>
+        <v>55.46513289</v>
       </c>
       <c r="G20">
-        <v>18.42</v>
+        <v>33.03</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>8.420000000000002</v>
+        <v>23.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>648248</v>
+      </c>
+      <c r="B21">
+        <v>677559</v>
+      </c>
+      <c r="C21">
+        <v>36.93819967</v>
+      </c>
+      <c r="D21">
+        <v>55.46513289</v>
+      </c>
+      <c r="E21">
+        <v>37.18434895</v>
+      </c>
+      <c r="F21">
+        <v>56.01121351</v>
+      </c>
+      <c r="G21">
+        <v>85.06999999999999</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>75.06999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>677559</v>
+      </c>
+      <c r="B22">
+        <v>677564</v>
+      </c>
+      <c r="C22">
+        <v>37.18434895</v>
+      </c>
+      <c r="D22">
+        <v>56.01121351</v>
+      </c>
+      <c r="E22">
+        <v>37.0714986</v>
+      </c>
+      <c r="F22">
+        <v>56.12929317</v>
+      </c>
+      <c r="G22">
+        <v>32.23</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>22.23</v>
       </c>
     </row>
   </sheetData>
